--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_37.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3360020.754384555</v>
+        <v>3353669.011843422</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.38184714</v>
+        <v>2310564.143223171</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791241</v>
+        <v>419463.093379124</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6922945.012279492</v>
+        <v>6922355.032889074</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>274.2286457832942</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -719,10 +719,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>206.3670033956569</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -750,10 +750,10 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>74.86702424530414</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>42.78300166212447</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>55.24675346159199</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>349.2565462147817</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>83.84708725779136</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -950,7 +950,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -984,16 +984,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>97.22354674971523</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>33.54550680794421</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1029,13 +1029,13 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>214.0175430895179</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>78.67241902514321</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>93.86158641218542</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>185.0369985129313</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1291,16 +1291,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>13.22962011024177</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>76.74086563202125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.662567890147116</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C11" t="n">
         <v>295.2524720077822</v>
@@ -1376,19 +1376,19 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603044</v>
+        <v>74.07584602384512</v>
       </c>
       <c r="F11" t="n">
         <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
-        <v>315.0398534825604</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T11" t="n">
         <v>127.274321941861</v>
@@ -1427,16 +1427,16 @@
         <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X11" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H13" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S13" t="n">
         <v>106.7966485049597</v>
@@ -1585,13 +1585,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V13" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W13" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X13" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y13" t="n">
         <v>126.8896660972066</v>
@@ -1610,10 +1610,10 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>273.4823810173256</v>
       </c>
       <c r="E14" t="n">
-        <v>89.59390682661119</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
@@ -1622,10 +1622,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H16" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S16" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T16" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U16" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003578</v>
+        <v>280.4599644277188</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281735</v>
+        <v>273.2139126555346</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415738</v>
+        <v>265.5568836689348</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9713182806958</v>
+        <v>282.5278558080568</v>
       </c>
       <c r="F32" t="n">
-        <v>303.1391227313968</v>
+        <v>296.6956602587579</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029517</v>
+        <v>293.0012941303127</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752491</v>
+        <v>204.8123861026101</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453466</v>
+        <v>20.92391191189567</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443478</v>
+        <v>48.8185856817958</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622523</v>
+        <v>105.2357625896133</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158222</v>
+        <v>137.1653684431832</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495916</v>
+        <v>222.6559073769527</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274703</v>
+        <v>251.2592108548313</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623485</v>
+        <v>269.5282451897096</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.9394306346798</v>
+        <v>276.4959681620408</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.7695671504631</v>
+        <v>67.32610467782412</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074551</v>
+        <v>52.47323292810653</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258524</v>
+        <v>38.04694813994625</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546435</v>
+        <v>37.97339019282536</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523162</v>
+        <v>39.72284161259263</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762375</v>
+        <v>50.54167953498477</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419579</v>
+        <v>37.89393170155681</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536772</v>
+        <v>15.73364728272874</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982364</v>
+        <v>6.632145647184657</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535096</v>
+        <v>84.75808915271197</v>
       </c>
       <c r="T34" t="n">
-        <v>123.775489959523</v>
+        <v>117.3320274868841</v>
       </c>
       <c r="U34" t="n">
-        <v>172.9980324865929</v>
+        <v>166.5545700139539</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7331803734589</v>
+        <v>147.2897179008199</v>
       </c>
       <c r="W34" t="n">
-        <v>170.910726694209</v>
+        <v>164.46726422157</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409216</v>
+        <v>115.7096851682826</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.2945692175979</v>
+        <v>104.8511067449589</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F35" t="n">
         <v>282.3655247697376</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.59377642287541</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277552</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U35" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W35" t="n">
         <v>236.929075365811</v>
@@ -3332,7 +3332,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V37" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3740,25 +3740,25 @@
         <v>300.022958784051</v>
       </c>
       <c r="C41" t="n">
-        <v>292.7769070118668</v>
+        <v>292.7769070118667</v>
       </c>
       <c r="D41" t="n">
-        <v>285.119878025267</v>
+        <v>1.098310803922644</v>
       </c>
       <c r="E41" t="n">
-        <v>302.090850164389</v>
+        <v>302.0908501643889</v>
       </c>
       <c r="F41" t="n">
         <v>316.2586546150901</v>
       </c>
       <c r="G41" t="n">
-        <v>312.564288486645</v>
+        <v>312.5642884866449</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>40.48690626822794</v>
+        <v>40.48690626822788</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>68.38158003812801</v>
       </c>
       <c r="T41" t="n">
         <v>124.7987569459456</v>
       </c>
       <c r="U41" t="n">
-        <v>156.7283627995155</v>
+        <v>156.7283627995154</v>
       </c>
       <c r="V41" t="n">
-        <v>242.2189017332849</v>
+        <v>242.2189017332848</v>
       </c>
       <c r="W41" t="n">
         <v>270.8222052111635</v>
@@ -3806,7 +3806,7 @@
         <v>289.0912395460418</v>
       </c>
       <c r="Y41" t="n">
-        <v>80.41897533515652</v>
+        <v>296.0589625183729</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415639</v>
+        <v>86.88909903415633</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443879</v>
+        <v>72.03622728443874</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627852</v>
+        <v>57.60994249627846</v>
       </c>
       <c r="E43" t="n">
-        <v>57.53638454915763</v>
+        <v>57.53638454915757</v>
       </c>
       <c r="F43" t="n">
-        <v>59.2858359689249</v>
+        <v>59.28583596892484</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131703</v>
+        <v>70.10467389131698</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788908</v>
+        <v>57.45692605788902</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906101</v>
+        <v>35.29664163906095</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19514000351693</v>
+        <v>26.19514000351687</v>
       </c>
       <c r="S43" t="n">
         <v>104.3210835090442</v>
@@ -3952,19 +3952,19 @@
         <v>136.8950218432163</v>
       </c>
       <c r="U43" t="n">
-        <v>186.1175643702862</v>
+        <v>186.1175643702861</v>
       </c>
       <c r="V43" t="n">
         <v>166.8527122571521</v>
       </c>
       <c r="W43" t="n">
-        <v>184.0302585779023</v>
+        <v>184.0302585779022</v>
       </c>
       <c r="X43" t="n">
         <v>135.2726795246148</v>
       </c>
       <c r="Y43" t="n">
-        <v>124.4141011012912</v>
+        <v>124.4141011012911</v>
       </c>
     </row>
     <row r="44">
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>300.022958784051</v>
       </c>
       <c r="C44" t="n">
         <v>292.7769070118668</v>
       </c>
       <c r="D44" t="n">
-        <v>285.119878025267</v>
+        <v>41.5852170721499</v>
       </c>
       <c r="E44" t="n">
         <v>302.090850164389</v>
@@ -3989,13 +3989,13 @@
         <v>316.2586546150901</v>
       </c>
       <c r="G44" t="n">
-        <v>104.1902995904077</v>
+        <v>312.564288486645</v>
       </c>
       <c r="H44" t="n">
-        <v>224.3753804589423</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>40.48690626822794</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812806</v>
+        <v>68.38158003812804</v>
       </c>
       <c r="T44" t="n">
         <v>124.7987569459456</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415639</v>
+        <v>86.88909903415636</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443879</v>
+        <v>72.03622728443877</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627852</v>
+        <v>57.60994249627849</v>
       </c>
       <c r="E46" t="n">
-        <v>57.53638454915763</v>
+        <v>57.5363845491576</v>
       </c>
       <c r="F46" t="n">
-        <v>59.2858359689249</v>
+        <v>59.28583596892487</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131703</v>
+        <v>70.10467389131701</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788908</v>
+        <v>57.45692605788905</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906101</v>
+        <v>35.29664163906098</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.19514000351693</v>
+        <v>26.1951400035169</v>
       </c>
       <c r="S46" t="n">
         <v>104.3210835090442</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1137.224782923112</v>
+        <v>790.5981662737466</v>
       </c>
       <c r="C2" t="n">
-        <v>744.0492814260429</v>
+        <v>790.5981662737466</v>
       </c>
       <c r="D2" t="n">
-        <v>467.0506493217052</v>
+        <v>790.5981662737466</v>
       </c>
       <c r="E2" t="n">
-        <v>64.46712443824973</v>
+        <v>790.5981662737466</v>
       </c>
       <c r="F2" t="n">
-        <v>51.61309000863154</v>
+        <v>777.7441318441284</v>
       </c>
       <c r="G2" t="n">
-        <v>42.49073853703877</v>
+        <v>364.5813763321316</v>
       </c>
       <c r="H2" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1405114458669</v>
+        <v>46.56170315639423</v>
       </c>
       <c r="K2" t="n">
-        <v>546.1228674733287</v>
+        <v>405.5440591838561</v>
       </c>
       <c r="L2" t="n">
-        <v>1039.443159191858</v>
+        <v>898.8643509023849</v>
       </c>
       <c r="M2" t="n">
-        <v>1151.46427368714</v>
+        <v>898.8643509023849</v>
       </c>
       <c r="N2" t="n">
-        <v>1151.46427368714</v>
+        <v>1400.031133897835</v>
       </c>
       <c r="O2" t="n">
-        <v>1591.503874579468</v>
+        <v>1840.070734790164</v>
       </c>
       <c r="P2" t="n">
-        <v>1939.69136671099</v>
+        <v>1840.070734790164</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R2" t="n">
-        <v>2124.536926851938</v>
+        <v>1986.923381216634</v>
       </c>
       <c r="S2" t="n">
-        <v>2124.536926851938</v>
+        <v>1820.409826157685</v>
       </c>
       <c r="T2" t="n">
-        <v>2124.536926851938</v>
+        <v>1596.909223717101</v>
       </c>
       <c r="U2" t="n">
-        <v>1868.784197286537</v>
+        <v>1341.1564941517</v>
       </c>
       <c r="V2" t="n">
-        <v>1526.677387990056</v>
+        <v>999.0496848552183</v>
       </c>
       <c r="W2" t="n">
-        <v>1526.677387990056</v>
+        <v>790.5981662737466</v>
       </c>
       <c r="X2" t="n">
-        <v>1137.224782923112</v>
+        <v>790.5981662737466</v>
       </c>
       <c r="Y2" t="n">
-        <v>1137.224782923112</v>
+        <v>790.5981662737466</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>792.4694676889814</v>
+        <v>657.7430775364687</v>
       </c>
       <c r="C3" t="n">
-        <v>641.8152372490736</v>
+        <v>507.0888470965609</v>
       </c>
       <c r="D3" t="n">
-        <v>511.7262698705539</v>
+        <v>376.9998797180413</v>
       </c>
       <c r="E3" t="n">
-        <v>375.2797789814416</v>
+        <v>240.553388828929</v>
       </c>
       <c r="F3" t="n">
-        <v>250.8479728645734</v>
+        <v>116.1215827120608</v>
       </c>
       <c r="G3" t="n">
-        <v>130.7881549364378</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="H3" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="J3" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="K3" t="n">
-        <v>42.49073853703877</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="L3" t="n">
-        <v>42.49073853703877</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="M3" t="n">
-        <v>442.2072945938146</v>
+        <v>861.4042549562989</v>
       </c>
       <c r="N3" t="n">
-        <v>968.0301839896694</v>
+        <v>883.7630516643738</v>
       </c>
       <c r="O3" t="n">
-        <v>1484.55046658065</v>
+        <v>1384.929834659824</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.171835297048</v>
+        <v>1790.551203376222</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R3" t="n">
-        <v>2100.619883750003</v>
+        <v>2000.999251829177</v>
       </c>
       <c r="S3" t="n">
-        <v>1965.689206649872</v>
+        <v>1866.068574729046</v>
       </c>
       <c r="T3" t="n">
-        <v>1788.70539484878</v>
+        <v>1689.084762927954</v>
       </c>
       <c r="U3" t="n">
-        <v>1578.642251527422</v>
+        <v>1479.021619606596</v>
       </c>
       <c r="V3" t="n">
-        <v>1356.102249898489</v>
+        <v>1256.481617977663</v>
       </c>
       <c r="W3" t="n">
-        <v>1312.887096704424</v>
+        <v>1026.36437211095</v>
       </c>
       <c r="X3" t="n">
-        <v>1123.580019054436</v>
+        <v>837.0572944609614</v>
       </c>
       <c r="Y3" t="n">
-        <v>944.2658021299427</v>
+        <v>657.7430775364687</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>943.9377610785913</v>
+        <v>241.0817140065311</v>
       </c>
       <c r="C4" t="n">
-        <v>943.9377610785913</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="D4" t="n">
-        <v>842.5807859407439</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="E4" t="n">
-        <v>687.0219737999464</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="F4" t="n">
-        <v>529.6960390129194</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="G4" t="n">
-        <v>361.4419851123649</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="H4" t="n">
-        <v>205.9634340738589</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="I4" t="n">
-        <v>72.86900871093682</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469806</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207804</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="S4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="T4" t="n">
-        <v>943.9377610785913</v>
+        <v>582.3253072409857</v>
       </c>
       <c r="U4" t="n">
-        <v>943.9377610785913</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="V4" t="n">
-        <v>943.9377610785913</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="W4" t="n">
-        <v>943.9377610785913</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="X4" t="n">
-        <v>943.9377610785913</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="Y4" t="n">
-        <v>943.9377610785913</v>
+        <v>296.8865154828866</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1345.070164285462</v>
+        <v>551.2091433733599</v>
       </c>
       <c r="C5" t="n">
-        <v>992.2857741695212</v>
+        <v>551.2091433733599</v>
       </c>
       <c r="D5" t="n">
-        <v>606.844645386189</v>
+        <v>551.2091433733599</v>
       </c>
       <c r="E5" t="n">
-        <v>606.844645386189</v>
+        <v>551.2091433733599</v>
       </c>
       <c r="F5" t="n">
-        <v>189.9502069161667</v>
+        <v>538.3551089437417</v>
       </c>
       <c r="G5" t="n">
-        <v>180.8278554445739</v>
+        <v>125.1923534317448</v>
       </c>
       <c r="H5" t="n">
-        <v>180.8278554445739</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1405114458669</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K5" t="n">
-        <v>546.1228674733287</v>
+        <v>544.1304548349121</v>
       </c>
       <c r="L5" t="n">
-        <v>1039.443159191858</v>
+        <v>1037.450746553441</v>
       </c>
       <c r="M5" t="n">
-        <v>1039.443159191858</v>
+        <v>1051.843641766313</v>
       </c>
       <c r="N5" t="n">
-        <v>1151.46427368714</v>
+        <v>1051.843641766313</v>
       </c>
       <c r="O5" t="n">
-        <v>1591.503874579468</v>
+        <v>1491.883242658642</v>
       </c>
       <c r="P5" t="n">
-        <v>1939.69136671099</v>
+        <v>1840.070734790164</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R5" t="n">
-        <v>2124.536926851938</v>
+        <v>1986.923381216634</v>
       </c>
       <c r="S5" t="n">
-        <v>1958.023371792989</v>
+        <v>1820.409826157685</v>
       </c>
       <c r="T5" t="n">
-        <v>1734.522769352406</v>
+        <v>1596.909223717101</v>
       </c>
       <c r="U5" t="n">
-        <v>1734.522769352406</v>
+        <v>1341.1564941517</v>
       </c>
       <c r="V5" t="n">
-        <v>1734.522769352406</v>
+        <v>1341.1564941517</v>
       </c>
       <c r="W5" t="n">
-        <v>1734.522769352406</v>
+        <v>1341.1564941517</v>
       </c>
       <c r="X5" t="n">
-        <v>1345.070164285462</v>
+        <v>951.7038890847567</v>
       </c>
       <c r="Y5" t="n">
-        <v>1345.070164285462</v>
+        <v>951.7038890847567</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>815.6305183376917</v>
+        <v>736.0639889622205</v>
       </c>
       <c r="C6" t="n">
-        <v>664.9762878977839</v>
+        <v>585.4097585223127</v>
       </c>
       <c r="D6" t="n">
-        <v>534.8873205192642</v>
+        <v>455.320791143793</v>
       </c>
       <c r="E6" t="n">
-        <v>398.4408296301519</v>
+        <v>318.8743002546807</v>
       </c>
       <c r="F6" t="n">
-        <v>300.2352268526618</v>
+        <v>194.4424941378126</v>
       </c>
       <c r="G6" t="n">
-        <v>180.1754089245263</v>
+        <v>74.382676209677</v>
       </c>
       <c r="H6" t="n">
-        <v>91.87799252512718</v>
+        <v>74.382676209677</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="J6" t="n">
-        <v>42.49073853703877</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K6" t="n">
-        <v>42.49073853703877</v>
+        <v>473.352454180576</v>
       </c>
       <c r="L6" t="n">
-        <v>42.49073853703877</v>
+        <v>521.4159459447612</v>
       </c>
       <c r="M6" t="n">
-        <v>568.3136279328935</v>
+        <v>1022.582728940211</v>
       </c>
       <c r="N6" t="n">
-        <v>968.0301839896694</v>
+        <v>1523.749511935662</v>
       </c>
       <c r="O6" t="n">
-        <v>1484.55046658065</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="P6" t="n">
-        <v>1890.171835297048</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R6" t="n">
-        <v>2100.619883750003</v>
+        <v>2000.999251829177</v>
       </c>
       <c r="S6" t="n">
-        <v>1965.689206649872</v>
+        <v>1866.068574729046</v>
       </c>
       <c r="T6" t="n">
-        <v>1788.70539484878</v>
+        <v>1689.084762927954</v>
       </c>
       <c r="U6" t="n">
-        <v>1788.70539484878</v>
+        <v>1479.021619606596</v>
       </c>
       <c r="V6" t="n">
-        <v>1566.165393219847</v>
+        <v>1256.481617977663</v>
       </c>
       <c r="W6" t="n">
-        <v>1336.048147353134</v>
+        <v>1256.481617977663</v>
       </c>
       <c r="X6" t="n">
-        <v>1146.741069703146</v>
+        <v>1067.174540327675</v>
       </c>
       <c r="Y6" t="n">
-        <v>967.426852778653</v>
+        <v>887.8603234031818</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>679.2626524629029</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="C7" t="n">
-        <v>679.2626524629029</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="D7" t="n">
-        <v>523.6295393654177</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="E7" t="n">
-        <v>368.0707272246203</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="F7" t="n">
-        <v>210.7447924375932</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="G7" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="H7" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469806</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207804</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="T7" t="n">
-        <v>943.9377610785913</v>
+        <v>725.7660119861162</v>
       </c>
       <c r="U7" t="n">
-        <v>943.9377610785913</v>
+        <v>725.7660119861162</v>
       </c>
       <c r="V7" t="n">
-        <v>943.9377610785913</v>
+        <v>459.7866668069404</v>
       </c>
       <c r="W7" t="n">
-        <v>943.9377610785913</v>
+        <v>459.7866668069404</v>
       </c>
       <c r="X7" t="n">
-        <v>864.4706711542042</v>
+        <v>225.7063445899235</v>
       </c>
       <c r="Y7" t="n">
-        <v>864.4706711542042</v>
+        <v>225.7063445899235</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1418.290805874553</v>
+        <v>1285.397995218369</v>
       </c>
       <c r="C8" t="n">
-        <v>1418.290805874553</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="D8" t="n">
-        <v>1418.290805874553</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="E8" t="n">
-        <v>1015.707280991098</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="F8" t="n">
-        <v>598.8128425210757</v>
+        <v>879.3684592916816</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>466.2057037796847</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>142.1226533461754</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>503.6092283712875</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1049.610128415868</v>
+        <v>1212.952060406441</v>
       </c>
       <c r="N8" t="n">
-        <v>1577.42141205333</v>
+        <v>1740.763344043903</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W8" t="n">
-        <v>1994.649470045468</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="X8" t="n">
-        <v>1605.196864978524</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="Y8" t="n">
-        <v>1418.290805874553</v>
+        <v>1285.397995218369</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L9" t="n">
-        <v>47.31297010154361</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083089</v>
+        <v>1229.492043226187</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O9" t="n">
         <v>1725.662044805892</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>686.0359480608643</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>515.8308301268535</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>360.1977170293682</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>204.6389048885707</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>232.5209887928449</v>
       </c>
       <c r="Y10" t="n">
-        <v>871.2439667521655</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1871.211875180719</v>
+        <v>1320.171044252416</v>
       </c>
       <c r="C11" t="n">
-        <v>1572.977054970837</v>
+        <v>1021.936224042534</v>
       </c>
       <c r="D11" t="n">
-        <v>1282.476607474693</v>
+        <v>731.4357765463906</v>
       </c>
       <c r="E11" t="n">
-        <v>974.8337638784258</v>
+        <v>656.6116896536173</v>
       </c>
       <c r="F11" t="n">
-        <v>652.8800066955919</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="G11" t="n">
         <v>334.6579324707834</v>
@@ -5069,22 +5069,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>2905.82359028062</v>
+        <v>2905.823590280621</v>
       </c>
       <c r="U11" t="n">
         <v>2745.011542002408</v>
       </c>
       <c r="V11" t="n">
-        <v>2745.011542002408</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W11" t="n">
-        <v>2468.953188257884</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>2174.441264478129</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y11" t="n">
-        <v>1872.891236685918</v>
+        <v>1625.725108676624</v>
       </c>
     </row>
     <row r="12">
@@ -5124,7 +5124,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>174.7633905351325</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
         <v>802.5350401618138</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669550996</v>
+        <v>493.0843669551</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082772</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979802</v>
+        <v>357.1274984979812</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443714</v>
+        <v>296.509367644372</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445328</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G13" t="n">
-        <v>160.8107415311667</v>
+        <v>160.8107415311671</v>
       </c>
       <c r="H13" t="n">
-        <v>100.2728717798493</v>
+        <v>100.2728717798494</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K13" t="n">
         <v>300.2831496757665</v>
@@ -5212,19 +5212,19 @@
         <v>1113.046087107759</v>
       </c>
       <c r="O13" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P13" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q13" t="n">
-        <v>1678.203301484816</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R13" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S13" t="n">
-        <v>1541.367590874319</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T13" t="n">
         <v>1400.589220329742</v>
@@ -5233,16 +5233,16 @@
         <v>1210.091109858831</v>
       </c>
       <c r="V13" t="n">
-        <v>1039.052445966843</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852094</v>
+        <v>850.66272518521</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553809</v>
+        <v>711.5230842553814</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592126</v>
+        <v>583.351704359213</v>
       </c>
     </row>
     <row r="14">
@@ -5258,19 +5258,19 @@
         <v>1021.936224042535</v>
       </c>
       <c r="D14" t="n">
-        <v>1021.936224042535</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="E14" t="n">
-        <v>931.4373282580789</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="F14" t="n">
-        <v>609.483571075245</v>
+        <v>423.7376375492708</v>
       </c>
       <c r="G14" t="n">
-        <v>291.2614968504365</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5312,16 +5312,16 @@
         <v>2745.011542002407</v>
       </c>
       <c r="V14" t="n">
-        <v>2497.845413993114</v>
+        <v>2497.845413993113</v>
       </c>
       <c r="W14" t="n">
-        <v>2221.78706024859</v>
+        <v>2221.787060248589</v>
       </c>
       <c r="X14" t="n">
         <v>1927.275136468835</v>
       </c>
       <c r="Y14" t="n">
-        <v>1625.725108676625</v>
+        <v>1625.725108676624</v>
       </c>
     </row>
     <row r="15">
@@ -5355,19 +5355,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.45686322911</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O15" t="n">
         <v>1740.468202408463</v>
@@ -5413,10 +5413,10 @@
         <v>493.0843669551003</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082779</v>
+        <v>417.8199303082778</v>
       </c>
       <c r="D16" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979809</v>
       </c>
       <c r="E16" t="n">
         <v>296.5093676443718</v>
@@ -5425,7 +5425,7 @@
         <v>234.1241141445331</v>
       </c>
       <c r="G16" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311669</v>
       </c>
       <c r="H16" t="n">
         <v>100.2728717798493</v>
@@ -5434,22 +5434,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K16" t="n">
-        <v>300.2831496757665</v>
+        <v>300.283149675766</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791389</v>
       </c>
       <c r="M16" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469763</v>
       </c>
       <c r="N16" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O16" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P16" t="n">
         <v>1581.729743385192</v>
@@ -5461,25 +5461,25 @@
         <v>1649.242993404582</v>
       </c>
       <c r="S16" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T16" t="n">
         <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V16" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852101</v>
+        <v>850.6627251852103</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553816</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592133</v>
+        <v>583.3517043592132</v>
       </c>
     </row>
     <row r="17">
@@ -5498,34 +5498,34 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803428</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924243</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129445</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404064</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M17" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5534,13 +5534,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5549,7 +5549,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
         <v>2405.467337224691</v>
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>862.5399502876207</v>
       </c>
       <c r="M18" t="n">
-        <v>1173.45686322911</v>
+        <v>1490.311599914302</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5665,22 +5665,22 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>67.69877031229927</v>
+        <v>67.69877031229933</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222411</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960409</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M19" t="n">
-        <v>499.953029634305</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N19" t="n">
         <v>812.1990332879427</v>
@@ -5735,25 +5735,25 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924243</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5762,7 +5762,7 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,13 +5771,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5829,16 +5829,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M21" t="n">
-        <v>865.4243596646552</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5902,7 +5902,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5920,13 +5920,13 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>969.3241577214669</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
         <v>1098.20216247628</v>
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
         <v>68.77950792924223</v>
@@ -6026,13 +6026,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6069,16 +6069,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6154,7 +6154,7 @@
         <v>407.3644357128483</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567336</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N25" t="n">
         <v>812.1990332879427</v>
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218606</v>
+        <v>986.0794951218597</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390258</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142183</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6224,25 +6224,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1163.368641331942</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1802.420903106096</v>
+        <v>1925.441780118092</v>
       </c>
       <c r="N26" t="n">
-        <v>2423.283548473132</v>
+        <v>2546.304425485127</v>
       </c>
       <c r="O26" t="n">
-        <v>2956.374511095034</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P26" t="n">
-        <v>3397.613364956129</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.4284403795</v>
@@ -6251,22 +6251,22 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
         <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6306,10 +6306,10 @@
         <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>607.4220014342354</v>
       </c>
       <c r="M27" t="n">
         <v>1235.193651060917</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878065</v>
@@ -6373,7 +6373,7 @@
         <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746016</v>
       </c>
       <c r="H28" t="n">
         <v>111.518603023284</v>
@@ -6382,13 +6382,13 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
         <v>848.0508225904116</v>
@@ -6397,7 +6397,7 @@
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P28" t="n">
         <v>1592.975474628627</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286449</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
         <v>1293.722338718128</v>
@@ -6458,40 +6458,40 @@
         <v>116.7612945678971</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>311.0659935859516</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134134</v>
       </c>
       <c r="L29" t="n">
-        <v>1342.204025341951</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1888.204925386532</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2416.016209023994</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>2949.107171645896</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P29" t="n">
-        <v>3390.346025506991</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
         <v>3307.298104174144</v>
@@ -6534,10 +6534,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J30" t="n">
         <v>186.4798411672776</v>
@@ -6549,10 +6549,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
         <v>848.0508225904115</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084637</v>
+        <v>1719.814764781095</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985472</v>
+        <v>1443.841115634091</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600044</v>
+        <v>1175.601839200824</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144927</v>
+        <v>890.2201666674327</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423747</v>
+        <v>590.527580547476</v>
       </c>
       <c r="G32" t="n">
-        <v>309.576185928282</v>
+        <v>294.5666773855439</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267639</v>
+        <v>87.68547930209927</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304543</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="J32" t="n">
-        <v>213.1924002918735</v>
+        <v>211.199987653457</v>
       </c>
       <c r="K32" t="n">
-        <v>680.6652639597213</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1173.98555567825</v>
+        <v>1165.756364896304</v>
       </c>
       <c r="M32" t="n">
-        <v>1719.986455722831</v>
+        <v>1711.757264940884</v>
       </c>
       <c r="N32" t="n">
-        <v>2345.568208347086</v>
+        <v>2239.568548578347</v>
       </c>
       <c r="O32" t="n">
-        <v>2785.607809239415</v>
+        <v>2794.477684958973</v>
       </c>
       <c r="P32" t="n">
-        <v>3242.285809011322</v>
+        <v>3142.665177090495</v>
       </c>
       <c r="Q32" t="n">
-        <v>3427.131369152271</v>
+        <v>3327.510737231444</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152271</v>
+        <v>3327.510737231444</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491226</v>
+        <v>3278.199034522559</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448547</v>
+        <v>3171.900284432041</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.444395281049</v>
+        <v>3033.349407216705</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382472</v>
+        <v>2808.444450270288</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748663</v>
+        <v>2554.64726758864</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079624</v>
+        <v>2282.396514871762</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.16845439813</v>
+        <v>2003.107658142427</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230764</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831686</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.1654127046489</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155366</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986685</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.2272977705329</v>
+        <v>204.2348851321163</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711338</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304543</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="J33" t="n">
-        <v>181.6576096027728</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>501.3967556649993</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="L33" t="n">
-        <v>984.9628415633125</v>
+        <v>663.2312828626696</v>
       </c>
       <c r="M33" t="n">
-        <v>984.9628415633125</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="N33" t="n">
-        <v>1230.371419496412</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.891702087393</v>
+        <v>1744.899289448977</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2150.520658165374</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590192</v>
+        <v>341.6872565554785</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229126</v>
+        <v>288.6839909715325</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233315</v>
+        <v>250.252730224112</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804382</v>
+        <v>211.8957704333793</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913154</v>
+        <v>171.7716879964171</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886651</v>
+        <v>120.7194864459274</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806334</v>
+        <v>82.4427877574862</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304543</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="J34" t="n">
-        <v>97.17577828919718</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="K34" t="n">
-        <v>179.0108193991391</v>
+        <v>148.3852558545707</v>
       </c>
       <c r="L34" t="n">
-        <v>451.6289669133247</v>
+        <v>427.382431216669</v>
       </c>
       <c r="M34" t="n">
-        <v>637.9205452515887</v>
+        <v>728.5435450432316</v>
       </c>
       <c r="N34" t="n">
-        <v>821.1101792827978</v>
+        <v>911.7331790744408</v>
       </c>
       <c r="O34" t="n">
-        <v>1092.305453964892</v>
+        <v>1189.307481604447</v>
       </c>
       <c r="P34" t="n">
-        <v>1320.672127381856</v>
+        <v>1323.033455149256</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392293</v>
+        <v>1326.455651519307</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422774</v>
+        <v>1319.756514501949</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003228</v>
+        <v>1234.142283034563</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569366</v>
+        <v>1115.625083552862</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209171</v>
+        <v>947.3881441448275</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914278995</v>
+        <v>798.6106513157165</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569813</v>
+        <v>632.4821015969588</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378686</v>
+        <v>515.6036317300068</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524162</v>
+        <v>409.693422896715</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975445</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411549</v>
       </c>
       <c r="J35" t="n">
         <v>206.7689006129436</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404054</v>
       </c>
       <c r="L35" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358933</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403514</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040976</v>
       </c>
       <c r="O35" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933304</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064826</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205774</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205774</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829233</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071059</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.467337224689</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -6999,10 +6999,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E36" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F36" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G36" t="n">
         <v>199.803798091603</v>
@@ -7011,19 +7011,19 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411549</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860693</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>494.9732559860693</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>568.1699486069235</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.565146063491</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072657</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411549</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411549</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>149.53381142224</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960398</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343038</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655131</v>
       </c>
       <c r="O37" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296498</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="38">
@@ -7157,16 +7157,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7208,10 +7208,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7251,22 +7251,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L39" t="n">
-        <v>865.4243596646552</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P39" t="n">
         <v>2146.089571124861</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7333,22 +7333,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>969.324157721467</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498046</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1627.066081816728</v>
+        <v>1340.175609875975</v>
       </c>
       <c r="C41" t="n">
-        <v>1331.331832309791</v>
+        <v>1044.441360369039</v>
       </c>
       <c r="D41" t="n">
         <v>1043.331955516592</v>
       </c>
       <c r="E41" t="n">
-        <v>738.1896826232702</v>
+        <v>738.1896826232701</v>
       </c>
       <c r="F41" t="n">
-        <v>418.7364961433811</v>
+        <v>418.736496143381</v>
       </c>
       <c r="G41" t="n">
-        <v>103.0149926215175</v>
+        <v>103.0149926215174</v>
       </c>
       <c r="H41" t="n">
-        <v>103.0149926215175</v>
+        <v>103.0149926215174</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,25 +7436,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205776</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.897034755326</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U41" t="n">
-        <v>2821.585557180058</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V41" t="n">
-        <v>2576.919999873709</v>
+        <v>2507.847696804894</v>
       </c>
       <c r="W41" t="n">
-        <v>2303.36221683213</v>
+        <v>2234.289913763314</v>
       </c>
       <c r="X41" t="n">
-        <v>2011.350863755322</v>
+        <v>1942.278560686504</v>
       </c>
       <c r="Y41" t="n">
-        <v>1930.119575537992</v>
+        <v>1643.229103597238</v>
       </c>
     </row>
     <row r="42">
@@ -7494,16 +7494,16 @@
         <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M42" t="n">
-        <v>1458.313011372373</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.313011372373</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>2181.928177194563</v>
       </c>
       <c r="P42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.5803720344863</v>
+        <v>475.5803720344858</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906087</v>
+        <v>402.8165060906083</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832566</v>
+        <v>344.6246449832563</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325923</v>
+        <v>286.5070848325921</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356985</v>
+        <v>226.6224020356983</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8096001252772</v>
+        <v>155.8096001252771</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77230107690443</v>
+        <v>97.77230107690437</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>127.8475561822076</v>
+        <v>68.2319501674381</v>
       </c>
       <c r="K43" t="n">
-        <v>305.184768367679</v>
+        <v>245.5691623529096</v>
       </c>
       <c r="L43" t="n">
-        <v>505.1989733022405</v>
+        <v>505.198973302239</v>
       </c>
       <c r="M43" t="n">
-        <v>786.9927227160341</v>
+        <v>786.9927227160326</v>
       </c>
       <c r="N43" t="n">
-        <v>1065.684527822773</v>
+        <v>1065.684527822772</v>
       </c>
       <c r="O43" t="n">
-        <v>1323.891465940011</v>
+        <v>1323.891465940009</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.269802792119</v>
+        <v>1539.269802792117</v>
       </c>
       <c r="Q43" t="n">
-        <v>1638.194170237699</v>
+        <v>1638.194170237698</v>
       </c>
       <c r="R43" t="n">
-        <v>1611.734432860409</v>
+        <v>1611.734432860408</v>
       </c>
       <c r="S43" t="n">
-        <v>1506.359601033092</v>
+        <v>1506.359601033091</v>
       </c>
       <c r="T43" t="n">
-        <v>1368.081801191459</v>
+        <v>1368.081801191458</v>
       </c>
       <c r="U43" t="n">
         <v>1180.084261423493</v>
       </c>
       <c r="V43" t="n">
-        <v>1011.546168234451</v>
+        <v>1011.54616823445</v>
       </c>
       <c r="W43" t="n">
-        <v>825.6570181557615</v>
+        <v>825.6570181557609</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288779</v>
+        <v>689.0179479288772</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.3471387356544</v>
+        <v>563.3471387356539</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1643.229103597238</v>
+        <v>1340.175609875975</v>
       </c>
       <c r="C44" t="n">
-        <v>1347.494854090301</v>
+        <v>1044.441360369038</v>
       </c>
       <c r="D44" t="n">
-        <v>1059.494977297103</v>
+        <v>1002.43609059919</v>
       </c>
       <c r="E44" t="n">
-        <v>754.3527044037804</v>
+        <v>697.293817705868</v>
       </c>
       <c r="F44" t="n">
-        <v>434.8995179238914</v>
+        <v>377.8406312259791</v>
       </c>
       <c r="G44" t="n">
-        <v>329.6567910648936</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>103.0149926215175</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7676,13 +7676,13 @@
         <v>3036.88408213696</v>
       </c>
       <c r="T44" t="n">
-        <v>2910.824731686509</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U44" t="n">
         <v>2752.513254111242</v>
       </c>
       <c r="V44" t="n">
-        <v>2507.847696804894</v>
+        <v>2507.847696804893</v>
       </c>
       <c r="W44" t="n">
         <v>2234.289913763314</v>
@@ -7725,19 +7725,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>456.9185815712231</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5393418843826</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5803720344863</v>
+        <v>475.580372034486</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906087</v>
+        <v>402.8165060906085</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832566</v>
+        <v>344.6246449832565</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325923</v>
+        <v>286.5070848325922</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356985</v>
+        <v>226.6224020356984</v>
       </c>
       <c r="G46" t="n">
         <v>155.8096001252772</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77230107690443</v>
+        <v>97.7723010769044</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7807,7 +7807,7 @@
         <v>127.8475561822076</v>
       </c>
       <c r="K46" t="n">
-        <v>305.184768367679</v>
+        <v>305.1847683676791</v>
       </c>
       <c r="L46" t="n">
         <v>564.8145793170083</v>
@@ -7816,13 +7816,13 @@
         <v>846.608328730802</v>
       </c>
       <c r="N46" t="n">
-        <v>1125.300133837541</v>
+        <v>1065.684527822772</v>
       </c>
       <c r="O46" t="n">
-        <v>1383.507071954778</v>
+        <v>1323.89146594001</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.269802792119</v>
+        <v>1539.269802792118</v>
       </c>
       <c r="Q46" t="n">
         <v>1638.194170237699</v>
@@ -7840,16 +7840,16 @@
         <v>1180.084261423493</v>
       </c>
       <c r="V46" t="n">
-        <v>1011.546168234451</v>
+        <v>1011.54616823445</v>
       </c>
       <c r="W46" t="n">
-        <v>825.6570181557615</v>
+        <v>825.6570181557611</v>
       </c>
       <c r="X46" t="n">
-        <v>689.0179479288779</v>
+        <v>689.0179479288774</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.3471387356544</v>
+        <v>563.3471387356541</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>123.8044614350451</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
@@ -7985,16 +7985,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>262.8776925020526</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>655.3475650705622</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8058,19 +8058,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>496.1412190763582</v>
+        <v>598.6161957820899</v>
       </c>
       <c r="N3" t="n">
-        <v>616.5063445671512</v>
+        <v>107.9567559936363</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>598.916632621667</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8222,10 +8222,10 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>164.2633295905277</v>
       </c>
       <c r="N5" t="n">
-        <v>262.2711322421094</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>138.6093284369033</v>
       </c>
       <c r="M6" t="n">
-        <v>623.5213537622965</v>
+        <v>598.6161957820899</v>
       </c>
       <c r="N6" t="n">
-        <v>489.126209881213</v>
+        <v>591.6011865869447</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>598.916632621667</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,16 +8450,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>614.1534811140714</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>320.115627001847</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8468,10 +8468,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,22 +8529,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>674.5394322581658</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>586.5539326316472</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
@@ -8772,10 +8772,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>351.8313913012159</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
@@ -8936,7 +8936,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N14" t="n">
-        <v>682.2612020826953</v>
+        <v>682.2612020826954</v>
       </c>
       <c r="O14" t="n">
         <v>594.0482827698827</v>
@@ -9003,22 +9003,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N15" t="n">
-        <v>136.3731801151487</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>263.7907196684361</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
         <v>505.666843611017</v>
@@ -9240,28 +9240,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>461.3398360504045</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>373.1055958271594</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9410,7 +9410,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N20" t="n">
-        <v>682.2612020826953</v>
+        <v>682.2612020826963</v>
       </c>
       <c r="O20" t="n">
         <v>594.0482827698827</v>
@@ -9477,19 +9477,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>447.5171231095475</v>
+        <v>510.5662141339224</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9717,19 +9717,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>454.5321323046928</v>
+        <v>636.8366347720143</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9954,13 +9954,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>515.2544481366735</v>
       </c>
       <c r="M27" t="n">
-        <v>340.274574506988</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
         <v>85.37211285416666</v>
@@ -10197,13 +10197,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286863</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10428,16 +10428,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>663.2434089132776</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118432</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10662,19 +10662,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>454.5321323046928</v>
+        <v>166.32317520169</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10899,25 +10899,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>262.5710112738847</v>
       </c>
       <c r="M39" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11142,19 +11142,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>691.2645480167034</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>287.6151683397065</v>
       </c>
       <c r="Q42" t="n">
         <v>90.98815315591399</v>
@@ -11373,22 +11373,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>488.8476739954107</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>300.8359558898193</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>230.4905691364593</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23498,10 +23498,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>14.11306200385682</v>
       </c>
       <c r="E14" t="n">
-        <v>214.9725083336932</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>284.0215672213444</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812806</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>215.6399871832165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25862,13 +25862,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>300.022958784051</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>243.5346609531171</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,13 +25877,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>208.3739888962373</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>40.48690626822791</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>605814.1868263531</v>
+        <v>605513.413019473</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>605814.1868263531</v>
+        <v>605513.413019473</v>
       </c>
     </row>
     <row r="4">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>574614.0531460696</v>
+        <v>574614.0531460694</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>667229.0589454202</v>
+        <v>667229.0589454198</v>
       </c>
       <c r="C2" t="n">
+        <v>667229.05894542</v>
+      </c>
+      <c r="D2" t="n">
         <v>667229.0589454201</v>
       </c>
-      <c r="D2" t="n">
-        <v>667229.0589454197</v>
-      </c>
       <c r="E2" t="n">
+        <v>627061.6539279826</v>
+      </c>
+      <c r="F2" t="n">
         <v>627061.6539279823</v>
       </c>
-      <c r="F2" t="n">
-        <v>627061.653927983</v>
-      </c>
       <c r="G2" t="n">
-        <v>667229.0589454201</v>
+        <v>667229.05894542</v>
       </c>
       <c r="H2" t="n">
-        <v>667229.0589454198</v>
+        <v>667229.05894542</v>
       </c>
       <c r="I2" t="n">
         <v>667229.0589454201</v>
       </c>
       <c r="J2" t="n">
-        <v>667229.0589454218</v>
+        <v>667229.0589454219</v>
       </c>
       <c r="K2" t="n">
-        <v>667229.0589454217</v>
+        <v>667229.0589454219</v>
       </c>
       <c r="L2" t="n">
-        <v>667229.0589454187</v>
+        <v>667229.0589454202</v>
       </c>
       <c r="M2" t="n">
+        <v>667229.058945419</v>
+      </c>
+      <c r="N2" t="n">
         <v>667229.0589454198</v>
       </c>
-      <c r="N2" t="n">
-        <v>667229.05894542</v>
-      </c>
       <c r="O2" t="n">
+        <v>629795.7916877213</v>
+      </c>
+      <c r="P2" t="n">
         <v>629795.7916877215</v>
-      </c>
-      <c r="P2" t="n">
-        <v>629795.7916877213</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343505</v>
+        <v>169649.0058765498</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602672</v>
+        <v>26460.41160941829</v>
       </c>
       <c r="E3" t="n">
         <v>130452.9311377121</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301434</v>
+        <v>29094.95587301433</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469664</v>
+        <v>215329.5897923932</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.0333767013</v>
+        <v>46725.80335481248</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436848</v>
+        <v>43782.97194555665</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.5598301568</v>
+        <v>18983.55983015685</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181309.5476066576</v>
+        <v>187720.9480760006</v>
       </c>
       <c r="C4" t="n">
-        <v>181309.5476066575</v>
+        <v>187720.9480760006</v>
       </c>
       <c r="D4" t="n">
         <v>165792.0503172815</v>
@@ -26445,10 +26445,10 @@
         <v>135498.1974718595</v>
       </c>
       <c r="L4" t="n">
-        <v>135175.3428171984</v>
+        <v>135041.9482081436</v>
       </c>
       <c r="M4" t="n">
-        <v>134747.7050074764</v>
+        <v>134747.7050074765</v>
       </c>
       <c r="N4" t="n">
         <v>134747.7050074764</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814946</v>
+        <v>64406.32768295291</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814946</v>
+        <v>64406.32768295291</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,10 +26482,10 @@
         <v>55112.2895089091</v>
       </c>
       <c r="G5" t="n">
+        <v>58169.76931551966</v>
+      </c>
+      <c r="H5" t="n">
         <v>58169.76931551967</v>
-      </c>
-      <c r="H5" t="n">
-        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26497,16 +26497,16 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446765</v>
+        <v>60332.67530588337</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551963</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>55320.40778255072</v>
+        <v>55320.40778255073</v>
       </c>
       <c r="P5" t="n">
         <v>55320.40778255072</v>
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242003.6529162627</v>
+        <v>245452.7773099166</v>
       </c>
       <c r="C6" t="n">
-        <v>419998.9500506131</v>
+        <v>415101.7831864665</v>
       </c>
       <c r="D6" t="n">
-        <v>413127.4289649384</v>
+        <v>405391.1397415471</v>
       </c>
       <c r="E6" t="n">
-        <v>331353.0489173666</v>
+        <v>331244.4883632656</v>
       </c>
       <c r="F6" t="n">
-        <v>461805.9800550794</v>
+        <v>461697.4195009775</v>
       </c>
       <c r="G6" t="n">
-        <v>445216.6287494097</v>
+        <v>445216.6287494096</v>
       </c>
       <c r="H6" t="n">
         <v>474311.5846224238</v>
@@ -26543,25 +26543,25 @@
         <v>474311.584622424</v>
       </c>
       <c r="J6" t="n">
-        <v>246225.9412726764</v>
+        <v>252742.2264272497</v>
       </c>
       <c r="K6" t="n">
-        <v>468071.8162196427</v>
+        <v>468071.8162196429</v>
       </c>
       <c r="L6" t="n">
-        <v>429177.4692870513</v>
+        <v>425128.6320765808</v>
       </c>
       <c r="M6" t="n">
-        <v>431580.3076880553</v>
+        <v>430528.6126768662</v>
       </c>
       <c r="N6" t="n">
-        <v>474311.5846224238</v>
+        <v>474311.5846224236</v>
       </c>
       <c r="O6" t="n">
-        <v>443673.823812028</v>
+        <v>443572.6528194394</v>
       </c>
       <c r="P6" t="n">
-        <v>462657.3836421847</v>
+        <v>462556.2126495965</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26713,7 +26713,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="P2" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129846</v>
+        <v>506.229073732778</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129846</v>
+        <v>506.229073732778</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26802,10 +26802,10 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
+        <v>776.4890963014441</v>
+      </c>
+      <c r="H4" t="n">
         <v>776.4890963014442</v>
-      </c>
-      <c r="H4" t="n">
-        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
@@ -26814,13 +26814,13 @@
         <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443781</v>
       </c>
       <c r="L4" t="n">
-        <v>856.7828422880677</v>
+        <v>831.877684307861</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014436</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126792</v>
+        <v>36.36869484126791</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304853</v>
+        <v>57.62257963304852</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087663</v>
+        <v>58.4072541935156</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165922</v>
+        <v>14.33013548902029</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.729449787696</v>
+        <v>23.72944978769607</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129846</v>
+        <v>506.229073732778</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455631046</v>
+        <v>85.18305253651704</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559187</v>
+        <v>646.8007142757122</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455254</v>
+        <v>129.6883820257316</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126792</v>
+        <v>36.36869484126791</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304853</v>
+        <v>57.62257963304852</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129846</v>
+        <v>506.229073732778</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455631046</v>
+        <v>85.18305253651704</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,22 +27379,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>107.3580717122047</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>160.9220412857385</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27470,10 +27470,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>43.99219550355006</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -27518,7 +27518,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>185.0330717459215</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>128.1091850427963</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>39.98720026731695</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>236.9951326713829</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.96394130598429</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>15.34787464026331</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27749,13 +27749,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27777,16 +27777,16 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
@@ -27825,19 +27825,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>19.34431822393034</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>153.0670999697035</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27853,25 +27853,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>43.0921593262744</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>207.4888034756735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
@@ -28059,25 +28059,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>220.1322412032064</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>144.1400749395018</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28357,7 +28357,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431653</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="17">
@@ -28743,10 +28743,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>35.7104901066881</v>
+        <v>35.71049010668816</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28992,16 +28992,16 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5.636002634529063</v>
-      </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29226,10 +29226,10 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>35.71049010668816</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>35.71049010668813</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29296,28 +29296,28 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="N26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="P26" t="n">
-        <v>93.99127447431646</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>30.27223765901226</v>
       </c>
       <c r="R26" t="n">
         <v>93.99127447431646</v>
@@ -29536,28 +29536,28 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="L29" t="n">
-        <v>86.65052755599527</v>
-      </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>30.27223765901181</v>
+      </c>
+      <c r="R29" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>93.99127447431646</v>
-      </c>
-      <c r="R29" t="n">
-        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,49 +29746,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="D32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="F32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="H32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="I32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>109.5863713539252</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>103.2865954513696</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>98.75804948160942</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="P32" t="n">
-        <v>109.5863713539252</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="T32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="U32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="W32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="I34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="J34" t="n">
-        <v>58.99686212483761</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="P34" t="n">
-        <v>109.5863713539252</v>
+        <v>13.98970481639412</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.5863713539252</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="S34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5863713539252</v>
+        <v>116.0298338265641</v>
       </c>
     </row>
     <row r="35">
@@ -30168,7 +30168,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>5.636002634527912</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30180,16 +30180,16 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P37" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30405,7 +30405,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30417,13 +30417,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.636002634528316</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R40" t="n">
         <v>122.6619794737488</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="D41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="E41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="F41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="G41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="H41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="I41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="T41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="U41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="V41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="W41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="X41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023193</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="C43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="D43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="E43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="F43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="G43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="H43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="I43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="J43" t="n">
-        <v>96.46683947023187</v>
+        <v>36.24905561692935</v>
       </c>
       <c r="K43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="L43" t="n">
-        <v>36.24905561693106</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="M43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="N43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="O43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="P43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="R43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="S43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="T43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="U43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="V43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="W43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="X43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023193</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="C44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="D44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="E44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="F44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="G44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="H44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="I44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="T44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="U44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="V44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="W44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="X44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="C46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="D46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="E46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="F46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="G46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="H46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="I46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="J46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="K46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="L46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="M46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="N46" t="n">
-        <v>96.46683947023187</v>
+        <v>36.24905561693058</v>
       </c>
       <c r="O46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="P46" t="n">
-        <v>36.24905561693103</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="R46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="S46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="T46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="U46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="V46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="W46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="X46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
     </row>
   </sheetData>
@@ -33658,22 +33658,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>-1.021333776245202e-13</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>-1.267054861942472e-13</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>-1.409842669246113e-13</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>-1.432655397579646e-13</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>-1.35281586661033e-13</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>-1.154597043650681e-13</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -33743,13 +33743,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>-1.0884973389412e-13</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>-1.117306624578055e-13</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>-1.022117277921815e-13</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>6.124623492698979</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
@@ -34705,16 +34705,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>113.1526409043253</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>506.229073732778</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34778,19 +34778,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>403.7540970270463</v>
+        <v>506.229073732778</v>
       </c>
       <c r="N3" t="n">
-        <v>531.1342317129846</v>
+        <v>22.58464313946962</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>506.229073732778</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34942,10 +34942,10 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>14.53827799280042</v>
       </c>
       <c r="N5" t="n">
-        <v>113.1526409043253</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>48.54898157998504</v>
       </c>
       <c r="M6" t="n">
-        <v>531.1342317129846</v>
+        <v>506.229073732778</v>
       </c>
       <c r="N6" t="n">
-        <v>403.7540970270463</v>
+        <v>506.229073732778</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>506.229073732778</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,16 +35170,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>460.9053113835797</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>170.3905754041197</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35188,10 +35188,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>582.1523102088539</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>501.1818197774805</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
@@ -35492,10 +35492,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>259.444269251904</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L13" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M13" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N13" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O13" t="n">
         <v>258.3395240113953</v>
@@ -35586,7 +35586,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,10 +35653,10 @@
         <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N14" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O14" t="n">
         <v>444.4844453457863</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N15" t="n">
-        <v>51.00106726098203</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
@@ -35811,7 +35811,7 @@
         <v>259.7767692963365</v>
       </c>
       <c r="M16" t="n">
-        <v>282.1645859271085</v>
+        <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
         <v>279.0313088492753</v>
@@ -35823,7 +35823,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>146.1108817260899</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
         <v>362.6084404317796</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>371.2794891934863</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>287.7334829729927</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.63600263452903</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36051,7 +36051,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36130,7 +36130,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449122</v>
       </c>
       <c r="O20" t="n">
         <v>444.4844453457863</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>362.1450102553808</v>
+        <v>425.1941012797557</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36288,16 +36288,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7230387724872</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,19 +36437,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>362.1450102553808</v>
+        <v>544.4495127227025</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36522,10 +36522,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>223.8838015594801</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>220.7505244816469</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>581.7882983101038</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>216.9849246700714</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
         <v>56.37828989698318</v>
@@ -36674,13 +36674,13 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>425.1941012797553</v>
       </c>
       <c r="M27" t="n">
-        <v>247.8874524576761</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>584.9538525242062</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700709</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397974</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -37069,22 +37069,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>472.1948117857048</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>601.5899204195806</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>631.9007602265206</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>560.5142791723505</v>
       </c>
       <c r="P32" t="n">
-        <v>461.2909088605129</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
@@ -37148,16 +37148,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>570.8562868639657</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576765</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>28.92237465267854</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>275.3718661759451</v>
+        <v>281.8153286485841</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>304.2031452793561</v>
       </c>
       <c r="N34" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>273.934620891004</v>
+        <v>280.378083363643</v>
       </c>
       <c r="P34" t="n">
-        <v>230.6734074918833</v>
+        <v>135.0767409543523</v>
       </c>
       <c r="Q34" t="n">
-        <v>113.0431353640776</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,22 +37306,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K35" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317795</v>
       </c>
       <c r="L35" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M35" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510914</v>
       </c>
       <c r="N35" t="n">
-        <v>533.1427107449111</v>
+        <v>533.142710744911</v>
       </c>
       <c r="O35" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457862</v>
       </c>
       <c r="P35" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065876</v>
       </c>
       <c r="Q35" t="n">
         <v>186.7126870110591</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>362.1450102553808</v>
+        <v>73.93605315237799</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>662.4019911217767</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>521.737659182809</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133789</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37476,16 +37476,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P37" t="n">
-        <v>249.385018246236</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
         <v>351.7045375065877</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>172.5106644169664</v>
       </c>
       <c r="M39" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37713,13 +37713,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>9.092766644680799</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37862,19 +37862,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>598.8774259673916</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>200.5318035203919</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.3923519980728</v>
+        <v>6.174568144770276</v>
       </c>
       <c r="K43" t="n">
         <v>179.1284971570419</v>
       </c>
       <c r="L43" t="n">
-        <v>202.034550438951</v>
+        <v>262.2523342922519</v>
       </c>
       <c r="M43" t="n">
-        <v>284.6401509230238</v>
+        <v>284.6401509230239</v>
       </c>
       <c r="N43" t="n">
         <v>281.5068738451907</v>
       </c>
       <c r="O43" t="n">
-        <v>260.8150890073107</v>
+        <v>260.8150890073108</v>
       </c>
       <c r="P43" t="n">
-        <v>217.55387560819</v>
+        <v>217.5538756081901</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.92360348038436</v>
+        <v>99.92360348038441</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>398.7873271384925</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>66.3923519980728</v>
+        <v>66.39235199807283</v>
       </c>
       <c r="K46" t="n">
         <v>179.1284971570419</v>
@@ -38184,16 +38184,16 @@
         <v>284.6401509230238</v>
       </c>
       <c r="N46" t="n">
-        <v>281.5068738451907</v>
+        <v>221.2890899918894</v>
       </c>
       <c r="O46" t="n">
         <v>260.8150890073107</v>
       </c>
       <c r="P46" t="n">
-        <v>157.3360917548892</v>
+        <v>217.5538756081901</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.92360348038436</v>
+        <v>99.92360348038439</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
